--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:05:11+00:00</t>
+    <t>2024-06-25T16:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,10 +484,10 @@
     <t>"Abrechnung - Knoten:" Lukriert die Patient:innen über eine reguläre Gruppe Punkte, so ist in diesem Datenfeld die entsprechende Knotenbezeichnung einzutragen.</t>
   </si>
   <si>
-    <t>Claim.extension:Punkte_Belagsdauerausreisser_unten_Leistungskomponente</t>
-  </si>
-  <si>
-    <t>Punkte_Belagsdauerausreisser_unten_Leistungskomponente</t>
+    <t>Claim.extension:PunkteBelagsdauerausreisserUntenLeistungskomponente</t>
+  </si>
+  <si>
+    <t>PunkteBelagsdauerausreisserUntenLeistungskomponente</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Punkte-Belagsdauerausreisser-unten-Leistungskomponente}
@@ -500,10 +500,10 @@
     <t>"Punkte Belagsdauerausreisser unten - Leistungskomponente:" In dieses Datenfeld ist – soweit zutreffend – die ermittelte Leistungskomponente für jene Patient:innen einzutragen, deren Belagsdauer des akut-stationären Krankenhausaufent- halts unter der im LKF-Modell in der jeweiligen LDF-Pauschale festgelegten Belagsdauer- untergrenze liegt.</t>
   </si>
   <si>
-    <t>Claim.extension:Punkte_Belagsdauerausreisser_unten_Tageskomponente</t>
-  </si>
-  <si>
-    <t>Punkte_Belagsdauerausreisser_unten_Tageskomponente</t>
+    <t>Claim.extension:PunkteBelagsdauerausreisserUntenTageskomponente</t>
+  </si>
+  <si>
+    <t>PunkteBelagsdauerausreisserUntenTageskomponente</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Punkte-Belagsdauerausreisser-unten-Tageskomponente}
@@ -516,10 +516,10 @@
     <t>"Punkte Belagsdauerausreisser unten - Tageskomponente:" In dieses Datenfeld ist – soweit zutreffend – die ermittelte Tageskomponente für jene Patient:innen einzutragen, deren Belagsdauer des akut-stationären Krankenhausaufent- halts unter der im LKF-Modell in der jeweiligen LDF-Pauschale festgelegten Belagsdauer- untergrenze liegt.</t>
   </si>
   <si>
-    <t>Claim.extension:Zusatzpunkte_Belagsdauerausreisser_nach_oben</t>
-  </si>
-  <si>
-    <t>Zusatzpunkte_Belagsdauerausreisser_nach_oben</t>
+    <t>Claim.extension:ZusatzpunkteBelagsdauerausreisserNachOben</t>
+  </si>
+  <si>
+    <t>ZusatzpunkteBelagsdauerausreisserNachOben</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-Zusatzpunkte-Belagsdauerausreisser-nach-oben}
@@ -532,10 +532,10 @@
     <t>"Zusatzpunkte Belagsdauerausreißer nach oben:" In dieses Datenfeld ist – soweit zutreffend – die Summe der tageweise ermittelten Zusatz- punkte für jene Patient:innen einzutragen, deren Belagsdauer des akut-stationären Krankenhausaufenthaltes über der im LKF-Modell in der jeweiligen LDF-Pauschale fest- gelegten Belagsdauerobergrenze liegt.</t>
   </si>
   <si>
-    <t>Claim.extension:Zusatzpunkte_Intensiv</t>
-  </si>
-  <si>
-    <t>Zusatzpunkte_Intensiv</t>
+    <t>Claim.extension:ZusatzpunkteIntensiv</t>
+  </si>
+  <si>
+    <t>ZusatzpunkteIntensiv</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-Zusatzpunkte-Intensiv}
@@ -548,10 +548,10 @@
     <t>"Zusatzpunkte Intensiv:" In dieses Datenfeld ist – soweit zutreffend – die Summe der Zusatzpunkte für während des stationären Krankenhausaufenthalts angefallene Tage auf abrechnungsrelevanten Intensiveinheiten einzutragen.</t>
   </si>
   <si>
-    <t>Claim.extension:Zusatzpunkte_Mehrfachleistungen</t>
-  </si>
-  <si>
-    <t>Zusatzpunkte_Mehrfachleistungen</t>
+    <t>Claim.extension:ZusatzpunkteMehrfachleistungen</t>
+  </si>
+  <si>
+    <t>ZusatzpunkteMehrfachleistungen</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-Zusatzpunkte-Mehrfachleistungen}
@@ -564,10 +564,10 @@
     <t>"Zusatzpunkte Mehrfachleistungen:" In dieses Datenfeld ist – soweit zutreffend – die Summe der Zusatzpunkte für zusätzliche Leistungen außerhalb des Punktepauschales der zur Abrechnung gelangenden Gruppe einzutragen.</t>
   </si>
   <si>
-    <t>Claim.extension:Punkte_spezieller_Bereiche_tageweise</t>
-  </si>
-  <si>
-    <t>Punkte_spezieller_Bereiche_tageweise</t>
+    <t>Claim.extension:PunkteSpeziellerBereicheTageweise</t>
+  </si>
+  <si>
+    <t>PunkteSpeziellerBereicheTageweise</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Punkte-spezieller-Bereiche-tageweise}
@@ -580,10 +580,10 @@
     <t>"Punkte spezieller Bereiche (tageweise):" In dieses Datenfeld ist – soweit zutreffend – die ermittelte Tageskomponente für jene Patient:innen einzutragen, deren Belagsdauer des akut-stationären Krankenhausaufent- halts unter der im LKF-Modell in der jeweiligen LDF-Pauschale festgelegten Belagsdauer- untergrenze liegt.</t>
   </si>
   <si>
-    <t>Claim.extension:Leistungskomponente_Leistungspunkte</t>
-  </si>
-  <si>
-    <t>Leistungskomponente_Leistungspunkte</t>
+    <t>Claim.extension:LeistungskomponenteLeistungspunkte</t>
+  </si>
+  <si>
+    <t>LeistungskomponenteLeistungspunkte</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Leistungskomponente-Leistungspunkte}
@@ -596,10 +596,10 @@
     <t>"Leistungskomponente/Leistungspunkte:" In dieses Datenfeld ist – soweit zutreffend – die ermittelte Leistungskomponente für jene Patient:innen einzutragen, deren Belagsdauer des akut-stationären Krankenhausaufent- halts unter der im LKF-Modell in der jeweiligen LDF-Pauschale festgelegten Belagsdauer- untergrenze liegt.</t>
   </si>
   <si>
-    <t>Claim.extension:Tageskomponente_Kontaktpunkte</t>
-  </si>
-  <si>
-    <t>Tageskomponente_Kontaktpunkte</t>
+    <t>Claim.extension:TageskomponenteKontaktpunkte</t>
+  </si>
+  <si>
+    <t>TageskomponenteKontaktpunkte</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Tageskomponente-Kontaktpunkte}
@@ -2905,9 +2905,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.4921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="56.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="54.11328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="48.5859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="839">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,20 +455,23 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Claim.extension:Comment</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-comment}
+    <t>Claim.extension:Note</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {note}
 </t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>"Kommentar:" Dieses Datenfeld ist für generelle oder spezifische Anmerkungen zum jeweiligen Krankenhausaufenthalt vorgesehen.</t>
+    <t>A recorded sex or gender property for the individual</t>
+  </si>
+  <si>
+    <t>Additional notes that apply to this resource or element.</t>
+  </si>
+  <si>
+    <t>This extension SHALL NOT be used if the resource already has standard 'note' element (or equivalent) of type Annotation on the same element</t>
   </si>
   <si>
     <t>Claim.extension:DiagnosisRelatedNode</t>
@@ -1733,7 +1736,7 @@
     <t>Present on admission</t>
   </si>
   <si>
-    <t>Indication of whether the diagnosis was present on admission to a facility.</t>
+    <t>Gibt an ob die Diagnose bereits bei Aufnahme in den stationären Aufenthalt vorhanden war</t>
   </si>
   <si>
     <t>Many systems need to understand for adjudication if the diagnosis was present a time of admission.</t>
@@ -4000,7 +4003,9 @@
       <c r="M10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -4075,13 +4080,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>19</v>
@@ -4103,13 +4108,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -4186,13 +4191,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
@@ -4214,13 +4219,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4297,13 +4302,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
@@ -4325,13 +4330,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -4408,13 +4413,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>19</v>
@@ -4436,13 +4441,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4519,13 +4524,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>19</v>
@@ -4547,13 +4552,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4630,13 +4635,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>19</v>
@@ -4658,13 +4663,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4741,13 +4746,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>19</v>
@@ -4769,13 +4774,13 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4852,13 +4857,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>19</v>
@@ -4880,13 +4885,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4963,13 +4968,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>19</v>
@@ -4991,13 +4996,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5074,13 +5079,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>19</v>
@@ -5102,13 +5107,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5185,13 +5190,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>19</v>
@@ -5213,13 +5218,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5296,13 +5301,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>19</v>
@@ -5324,13 +5329,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5407,13 +5412,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>19</v>
@@ -5435,13 +5440,13 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5518,13 +5523,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>19</v>
@@ -5546,13 +5551,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5629,13 +5634,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>19</v>
@@ -5657,13 +5662,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5740,14 +5745,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5769,16 +5774,16 @@
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -5827,7 +5832,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5853,14 +5858,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5879,17 +5884,17 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5938,7 +5943,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5953,10 +5958,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
@@ -5964,10 +5969,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5990,17 +5995,17 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -6049,7 +6054,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -6075,10 +6080,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6104,16 +6109,16 @@
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -6141,10 +6146,10 @@
         <v>111</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>19</v>
@@ -6162,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -6177,10 +6182,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -6188,10 +6193,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6214,19 +6219,19 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -6251,13 +6256,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -6275,7 +6280,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -6293,7 +6298,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -6301,10 +6306,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6327,19 +6332,19 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -6364,13 +6369,13 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -6388,7 +6393,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6406,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
@@ -6414,10 +6419,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6443,14 +6448,14 @@
         <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -6478,10 +6483,10 @@
         <v>111</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -6499,7 +6504,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -6517,7 +6522,7 @@
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
@@ -6525,10 +6530,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6551,17 +6556,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6610,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -6625,10 +6630,10 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
@@ -6636,10 +6641,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6662,19 +6667,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -6723,7 +6728,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6741,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
@@ -6749,10 +6754,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6775,19 +6780,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6836,7 +6841,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6851,10 +6856,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -6862,10 +6867,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6888,17 +6893,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6947,7 +6952,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6965,7 +6970,7 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -6973,10 +6978,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6999,13 +7004,13 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7056,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7076,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
@@ -7082,10 +7087,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7108,16 +7113,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7167,7 +7172,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7182,10 +7187,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -7193,10 +7198,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7219,19 +7224,19 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -7256,13 +7261,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -7280,7 +7285,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7295,7 +7300,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
@@ -7306,14 +7311,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7332,19 +7337,19 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -7369,13 +7374,13 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
@@ -7393,7 +7398,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7419,10 +7424,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7445,19 +7450,19 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -7506,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7532,10 +7537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7558,13 +7563,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7615,7 +7620,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7629,7 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>19</v>
@@ -7636,19 +7641,19 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7670,13 +7675,13 @@
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7726,7 +7731,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7747,19 +7752,19 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7781,16 +7786,16 @@
         <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7839,7 +7844,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7865,10 +7870,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7891,17 +7896,17 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7950,7 +7955,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7965,7 +7970,7 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>19</v>
@@ -7976,10 +7981,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8002,19 +8007,19 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -8039,13 +8044,13 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -8063,7 +8068,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -8089,10 +8094,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8115,19 +8120,19 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -8176,7 +8181,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8202,10 +8207,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8228,17 +8233,17 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -8287,7 +8292,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8313,10 +8318,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8339,19 +8344,19 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8400,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8426,10 +8431,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8452,19 +8457,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -8513,7 +8518,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8539,10 +8544,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8565,13 +8570,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8622,7 +8627,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8631,7 +8636,7 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>19</v>
@@ -8643,19 +8648,19 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8677,13 +8682,13 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8733,7 +8738,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8754,19 +8759,19 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8788,16 +8793,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8846,7 +8851,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8872,10 +8877,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8898,17 +8903,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8933,13 +8938,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8957,7 +8962,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8983,10 +8988,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9009,19 +9014,19 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -9070,7 +9075,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9096,10 +9101,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9122,19 +9127,19 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -9183,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9201,7 +9206,7 @@
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>19</v>
@@ -9209,10 +9214,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9235,19 +9240,19 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -9294,7 +9299,7 @@
         <v>138</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9320,13 +9325,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>19</v>
@@ -9348,19 +9353,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -9409,7 +9414,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9435,13 +9440,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>19</v>
@@ -9463,19 +9468,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9524,7 +9529,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9550,10 +9555,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9576,17 +9581,17 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9635,7 +9640,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9653,7 +9658,7 @@
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>19</v>
@@ -9661,10 +9666,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9687,19 +9692,19 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9728,7 +9733,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9746,7 +9751,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9772,10 +9777,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9798,13 +9803,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9855,7 +9860,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9881,10 +9886,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9907,13 +9912,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9964,7 +9969,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9973,7 +9978,7 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>19</v>
@@ -9985,19 +9990,19 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10019,13 +10024,13 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10075,7 +10080,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10096,19 +10101,19 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10130,16 +10135,16 @@
         <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -10188,7 +10193,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10214,10 +10219,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10240,13 +10245,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10273,11 +10278,11 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -10295,7 +10300,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -10321,10 +10326,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10347,13 +10352,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10404,7 +10409,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -10430,10 +10435,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10456,17 +10461,17 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10515,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10541,10 +10546,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10567,13 +10572,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10624,7 +10629,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10633,7 +10638,7 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>19</v>
@@ -10645,19 +10650,19 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10679,13 +10684,13 @@
         <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10735,7 +10740,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10756,19 +10761,19 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10790,16 +10795,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -10848,7 +10853,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10874,10 +10879,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10900,17 +10905,17 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10959,7 +10964,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10985,10 +10990,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11011,17 +11016,17 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -11070,7 +11075,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -11088,7 +11093,7 @@
         <v>19</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>19</v>
@@ -11096,10 +11101,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11122,19 +11127,19 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -11183,7 +11188,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11209,10 +11214,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11235,19 +11240,19 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -11272,13 +11277,13 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>19</v>
@@ -11296,7 +11301,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11322,10 +11327,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11348,17 +11353,17 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11383,11 +11388,11 @@
         <v>19</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>19</v>
@@ -11405,7 +11410,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11431,14 +11436,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11457,19 +11462,19 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11518,7 +11523,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11533,7 +11538,7 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>19</v>
@@ -11544,10 +11549,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11570,13 +11575,13 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11627,7 +11632,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11636,7 +11641,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>19</v>
@@ -11648,19 +11653,19 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11682,13 +11687,13 @@
         <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11738,7 +11743,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11759,19 +11764,19 @@
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11793,16 +11798,16 @@
         <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11851,7 +11856,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11877,10 +11882,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11903,17 +11908,17 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -11962,7 +11967,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>87</v>
@@ -11988,10 +11993,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12014,19 +12019,19 @@
         <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -12051,13 +12056,13 @@
         <v>19</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -12075,7 +12080,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>87</v>
@@ -12101,10 +12106,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12127,17 +12132,17 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>19</v>
@@ -12162,13 +12167,13 @@
         <v>19</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -12186,7 +12191,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12212,10 +12217,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12238,13 +12243,13 @@
         <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12295,7 +12300,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12321,10 +12326,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12347,19 +12352,19 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12408,7 +12413,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12434,10 +12439,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12460,19 +12465,19 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -12497,13 +12502,13 @@
         <v>19</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>19</v>
@@ -12521,7 +12526,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12547,10 +12552,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12573,17 +12578,17 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -12632,7 +12637,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12647,7 +12652,7 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>19</v>
@@ -12658,10 +12663,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12684,13 +12689,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12741,7 +12746,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12750,7 +12755,7 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>19</v>
@@ -12762,19 +12767,19 @@
         <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12796,13 +12801,13 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12852,7 +12857,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12873,19 +12878,19 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12907,16 +12912,16 @@
         <v>134</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -12965,7 +12970,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12991,10 +12996,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13017,19 +13022,19 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -13078,7 +13083,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>87</v>
@@ -13104,10 +13109,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13130,17 +13135,17 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13165,13 +13170,13 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
@@ -13189,7 +13194,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>87</v>
@@ -13215,10 +13220,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13241,19 +13246,19 @@
         <v>19</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
@@ -13278,13 +13283,13 @@
         <v>19</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>19</v>
@@ -13302,7 +13307,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13328,10 +13333,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13354,17 +13359,17 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>19</v>
@@ -13389,13 +13394,13 @@
         <v>19</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>19</v>
@@ -13413,7 +13418,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13439,10 +13444,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13465,17 +13470,17 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>19</v>
@@ -13524,7 +13529,7 @@
         <v>19</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13550,10 +13555,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13576,13 +13581,13 @@
         <v>19</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13633,7 +13638,7 @@
         <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13642,7 +13647,7 @@
         <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>19</v>
@@ -13654,15 +13659,15 @@
         <v>19</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13740,7 +13745,7 @@
         <v>138</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -13766,13 +13771,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="B98" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="C98" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>19</v>
@@ -13794,13 +13799,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13851,7 +13856,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13877,14 +13882,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13906,16 +13911,16 @@
         <v>134</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>19</v>
@@ -13964,7 +13969,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13990,10 +13995,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14016,17 +14021,17 @@
         <v>19</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>19</v>
@@ -14075,7 +14080,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>87</v>
@@ -14101,10 +14106,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14127,19 +14132,19 @@
         <v>19</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>19</v>
@@ -14164,13 +14169,13 @@
         <v>19</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -14188,7 +14193,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14214,10 +14219,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14240,17 +14245,17 @@
         <v>19</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>19</v>
@@ -14299,7 +14304,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14325,10 +14330,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14351,17 +14356,17 @@
         <v>19</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>19</v>
@@ -14386,13 +14391,13 @@
         <v>19</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>19</v>
@@ -14410,7 +14415,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>87</v>
@@ -14436,10 +14441,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14462,17 +14467,17 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>19</v>
@@ -14521,7 +14526,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14547,10 +14552,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14573,19 +14578,19 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -14634,7 +14639,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14655,15 +14660,15 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14686,13 +14691,13 @@
         <v>19</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14743,7 +14748,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14752,7 +14757,7 @@
         <v>87</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>19</v>
@@ -14764,19 +14769,19 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14798,13 +14803,13 @@
         <v>134</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14854,7 +14859,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -14875,19 +14880,19 @@
         <v>19</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14909,16 +14914,16 @@
         <v>134</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
@@ -14967,7 +14972,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14993,10 +14998,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15019,17 +15024,17 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -15078,7 +15083,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>87</v>
@@ -15104,10 +15109,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15130,19 +15135,19 @@
         <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>19</v>
@@ -15191,7 +15196,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>87</v>
@@ -15217,10 +15222,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15243,19 +15248,19 @@
         <v>19</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>19</v>
@@ -15304,7 +15309,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15319,10 +15324,10 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>19</v>
@@ -15330,10 +15335,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15356,17 +15361,17 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -15415,7 +15420,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>87</v>
@@ -15441,10 +15446,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15467,17 +15472,17 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>19</v>
@@ -15526,7 +15531,7 @@
         <v>19</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15552,10 +15557,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15578,19 +15583,19 @@
         <v>19</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>19</v>
@@ -15639,7 +15644,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15665,10 +15670,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15691,19 +15696,19 @@
         <v>19</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>19</v>
@@ -15752,7 +15757,7 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -15778,10 +15783,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15804,17 +15809,17 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>19</v>
@@ -15863,7 +15868,7 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -15889,10 +15894,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15915,13 +15920,13 @@
         <v>19</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15972,7 +15977,7 @@
         <v>19</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -15981,7 +15986,7 @@
         <v>87</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>19</v>
@@ -15993,19 +15998,19 @@
         <v>19</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16027,13 +16032,13 @@
         <v>134</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16083,7 +16088,7 @@
         <v>19</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -16104,19 +16109,19 @@
         <v>19</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16138,16 +16143,16 @@
         <v>134</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -16196,7 +16201,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
@@ -16222,10 +16227,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16248,19 +16253,19 @@
         <v>19</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>19</v>
@@ -16309,7 +16314,7 @@
         <v>19</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>87</v>
@@ -16335,10 +16340,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16361,17 +16366,17 @@
         <v>19</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>19</v>
@@ -16396,13 +16401,13 @@
         <v>19</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>19</v>
@@ -16420,7 +16425,7 @@
         <v>19</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -16446,10 +16451,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16472,17 +16477,17 @@
         <v>19</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -16531,7 +16536,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -16557,10 +16562,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16583,17 +16588,17 @@
         <v>19</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>19</v>
@@ -16642,7 +16647,7 @@
         <v>19</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -16668,10 +16673,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16694,17 +16699,17 @@
         <v>19</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>19</v>
@@ -16753,7 +16758,7 @@
         <v>19</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -16779,10 +16784,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16805,13 +16810,13 @@
         <v>19</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16862,7 +16867,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -16871,7 +16876,7 @@
         <v>87</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>19</v>
@@ -16883,19 +16888,19 @@
         <v>19</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16917,13 +16922,13 @@
         <v>134</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -16973,7 +16978,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -16994,19 +16999,19 @@
         <v>19</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17028,16 +17033,16 @@
         <v>134</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -17086,7 +17091,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
@@ -17112,10 +17117,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17138,17 +17143,17 @@
         <v>19</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>19</v>
@@ -17197,7 +17202,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>87</v>
@@ -17223,10 +17228,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17249,17 +17254,17 @@
         <v>19</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>19</v>
@@ -17308,7 +17313,7 @@
         <v>19</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
@@ -17334,10 +17339,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17360,17 +17365,17 @@
         <v>19</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>19</v>
@@ -17419,7 +17424,7 @@
         <v>19</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
@@ -17445,10 +17450,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17471,17 +17476,17 @@
         <v>19</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>19</v>
@@ -17530,7 +17535,7 @@
         <v>19</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
@@ -17556,10 +17561,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17582,17 +17587,17 @@
         <v>19</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>19</v>
@@ -17641,7 +17646,7 @@
         <v>19</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17667,10 +17672,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17693,17 +17698,17 @@
         <v>19</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>19</v>
@@ -17752,7 +17757,7 @@
         <v>19</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
@@ -17778,10 +17783,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17804,17 +17809,17 @@
         <v>19</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>19</v>
@@ -17839,13 +17844,13 @@
         <v>19</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>19</v>
@@ -17863,7 +17868,7 @@
         <v>19</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>76</v>
@@ -17889,10 +17894,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17915,19 +17920,19 @@
         <v>19</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>19</v>
@@ -17952,13 +17957,13 @@
         <v>19</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>19</v>
@@ -17976,7 +17981,7 @@
         <v>19</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>76</v>
@@ -18002,14 +18007,14 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18028,19 +18033,19 @@
         <v>19</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>19</v>
@@ -18065,13 +18070,13 @@
         <v>19</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>19</v>
@@ -18089,7 +18094,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>76</v>
@@ -18115,14 +18120,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18141,13 +18146,13 @@
         <v>19</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18174,11 +18179,11 @@
         <v>19</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>19</v>
@@ -18196,7 +18201,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>76</v>
@@ -18222,10 +18227,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18248,17 +18253,17 @@
         <v>19</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>19</v>
@@ -18307,7 +18312,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>76</v>
@@ -18333,10 +18338,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18359,19 +18364,19 @@
         <v>19</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>19</v>
@@ -18396,13 +18401,13 @@
         <v>19</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>19</v>
@@ -18420,7 +18425,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>76</v>
@@ -18446,10 +18451,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18472,19 +18477,19 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>19</v>
@@ -18509,13 +18514,13 @@
         <v>19</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>19</v>
@@ -18533,7 +18538,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>76</v>
@@ -18559,10 +18564,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18585,17 +18590,17 @@
         <v>19</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>19</v>
@@ -18644,7 +18649,7 @@
         <v>19</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>76</v>
@@ -18662,7 +18667,7 @@
         <v>19</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>19</v>
@@ -18670,10 +18675,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18696,17 +18701,17 @@
         <v>19</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>19</v>
@@ -18731,13 +18736,13 @@
         <v>19</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>19</v>
@@ -18755,7 +18760,7 @@
         <v>19</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>76</v>
@@ -18773,7 +18778,7 @@
         <v>19</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>19</v>
@@ -18781,10 +18786,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18807,17 +18812,17 @@
         <v>19</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>19</v>
@@ -18866,7 +18871,7 @@
         <v>19</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>76</v>
@@ -18892,10 +18897,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18918,17 +18923,17 @@
         <v>19</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>19</v>
@@ -18977,7 +18982,7 @@
         <v>19</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>76</v>
@@ -19003,10 +19008,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19029,17 +19034,17 @@
         <v>19</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>19</v>
@@ -19088,7 +19093,7 @@
         <v>19</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>76</v>
@@ -19114,10 +19119,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19140,19 +19145,19 @@
         <v>19</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>19</v>
@@ -19201,7 +19206,7 @@
         <v>19</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>76</v>
@@ -19227,10 +19232,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19253,17 +19258,17 @@
         <v>19</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>19</v>
@@ -19312,7 +19317,7 @@
         <v>19</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>76</v>
@@ -19338,10 +19343,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19364,19 +19369,19 @@
         <v>19</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>19</v>
@@ -19425,7 +19430,7 @@
         <v>19</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>76</v>
@@ -19451,10 +19456,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19477,17 +19482,17 @@
         <v>19</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>19</v>
@@ -19536,7 +19541,7 @@
         <v>19</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>76</v>
@@ -19562,10 +19567,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19588,13 +19593,13 @@
         <v>19</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19645,7 +19650,7 @@
         <v>19</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>76</v>
@@ -19671,10 +19676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19697,13 +19702,13 @@
         <v>19</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19754,7 +19759,7 @@
         <v>19</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>76</v>
@@ -19763,7 +19768,7 @@
         <v>87</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>19</v>
@@ -19775,19 +19780,19 @@
         <v>19</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -19809,13 +19814,13 @@
         <v>134</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -19865,7 +19870,7 @@
         <v>19</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>76</v>
@@ -19886,19 +19891,19 @@
         <v>19</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -19920,16 +19925,16 @@
         <v>134</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>19</v>
@@ -19978,7 +19983,7 @@
         <v>19</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>76</v>
@@ -20004,10 +20009,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20030,19 +20035,19 @@
         <v>19</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>19</v>
@@ -20067,11 +20072,11 @@
         <v>19</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y154" s="2"/>
       <c r="Z154" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>19</v>
@@ -20089,7 +20094,7 @@
         <v>19</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>87</v>
@@ -20115,10 +20120,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20141,17 +20146,17 @@
         <v>19</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>19</v>
@@ -20176,11 +20181,11 @@
         <v>19</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y155" s="2"/>
       <c r="Z155" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>19</v>
@@ -20198,7 +20203,7 @@
         <v>19</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>76</v>
@@ -20224,10 +20229,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20250,19 +20255,19 @@
         <v>19</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>19</v>
@@ -20311,7 +20316,7 @@
         <v>19</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>76</v>
@@ -20326,7 +20331,7 @@
         <v>99</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>19</v>
@@ -20337,10 +20342,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20363,17 +20368,17 @@
         <v>19</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>19</v>
@@ -20422,7 +20427,7 @@
         <v>19</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>76</v>
@@ -20448,10 +20453,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20474,13 +20479,13 @@
         <v>19</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -20531,7 +20536,7 @@
         <v>19</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>76</v>
@@ -20540,7 +20545,7 @@
         <v>87</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>19</v>
@@ -20552,19 +20557,19 @@
         <v>19</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -20586,13 +20591,13 @@
         <v>134</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -20642,7 +20647,7 @@
         <v>19</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>76</v>
@@ -20663,19 +20668,19 @@
         <v>19</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -20697,16 +20702,16 @@
         <v>134</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>19</v>
@@ -20755,7 +20760,7 @@
         <v>19</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>76</v>
@@ -20781,10 +20786,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20807,17 +20812,17 @@
         <v>19</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>19</v>
@@ -20866,7 +20871,7 @@
         <v>19</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>87</v>
@@ -20892,10 +20897,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20918,17 +20923,17 @@
         <v>19</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>19</v>
@@ -20977,7 +20982,7 @@
         <v>19</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>76</v>
@@ -21003,10 +21008,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21029,17 +21034,17 @@
         <v>19</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>19</v>
@@ -21064,13 +21069,13 @@
         <v>19</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>19</v>
@@ -21088,7 +21093,7 @@
         <v>19</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>76</v>
@@ -21114,10 +21119,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21140,19 +21145,19 @@
         <v>19</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>19</v>
@@ -21177,13 +21182,13 @@
         <v>19</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>19</v>
@@ -21201,7 +21206,7 @@
         <v>19</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>76</v>
@@ -21227,14 +21232,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -21253,19 +21258,19 @@
         <v>19</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>19</v>
@@ -21290,13 +21295,13 @@
         <v>19</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>19</v>
@@ -21314,7 +21319,7 @@
         <v>19</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>76</v>
@@ -21340,14 +21345,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -21366,13 +21371,13 @@
         <v>19</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -21399,11 +21404,11 @@
         <v>19</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y166" s="2"/>
       <c r="Z166" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>19</v>
@@ -21421,7 +21426,7 @@
         <v>19</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>76</v>
@@ -21447,10 +21452,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21473,19 +21478,19 @@
         <v>19</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>19</v>
@@ -21510,13 +21515,13 @@
         <v>19</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>19</v>
@@ -21534,7 +21539,7 @@
         <v>19</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>76</v>
@@ -21560,10 +21565,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21586,19 +21591,19 @@
         <v>19</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>19</v>
@@ -21623,13 +21628,13 @@
         <v>19</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>19</v>
@@ -21647,7 +21652,7 @@
         <v>19</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>76</v>
@@ -21673,10 +21678,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21699,17 +21704,17 @@
         <v>19</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>19</v>
@@ -21758,7 +21763,7 @@
         <v>19</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>76</v>
@@ -21784,10 +21789,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -21810,17 +21815,17 @@
         <v>19</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>19</v>
@@ -21869,7 +21874,7 @@
         <v>19</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>76</v>
@@ -21895,10 +21900,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21921,17 +21926,17 @@
         <v>19</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>19</v>
@@ -21980,7 +21985,7 @@
         <v>19</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>76</v>
@@ -22006,10 +22011,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22032,19 +22037,19 @@
         <v>19</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>19</v>
@@ -22093,7 +22098,7 @@
         <v>19</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>76</v>
@@ -22119,10 +22124,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22145,17 +22150,17 @@
         <v>19</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>19</v>
@@ -22204,7 +22209,7 @@
         <v>19</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>76</v>
@@ -22230,10 +22235,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22256,19 +22261,19 @@
         <v>19</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>19</v>
@@ -22317,7 +22322,7 @@
         <v>19</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>76</v>
@@ -22343,10 +22348,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22369,17 +22374,17 @@
         <v>19</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>19</v>
@@ -22428,7 +22433,7 @@
         <v>19</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>76</v>
@@ -22454,10 +22459,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22480,17 +22485,17 @@
         <v>19</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>19</v>
@@ -22539,7 +22544,7 @@
         <v>19</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>76</v>
@@ -22565,10 +22570,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -22591,13 +22596,13 @@
         <v>19</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -22648,7 +22653,7 @@
         <v>19</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>76</v>
@@ -22657,7 +22662,7 @@
         <v>87</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>19</v>
@@ -22669,19 +22674,19 @@
         <v>19</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
@@ -22703,13 +22708,13 @@
         <v>134</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -22759,7 +22764,7 @@
         <v>19</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>76</v>
@@ -22780,19 +22785,19 @@
         <v>19</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
@@ -22814,16 +22819,16 @@
         <v>134</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>19</v>
@@ -22872,7 +22877,7 @@
         <v>19</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>76</v>
@@ -22898,10 +22903,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22924,17 +22929,17 @@
         <v>19</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>19</v>
@@ -22983,7 +22988,7 @@
         <v>19</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>87</v>
@@ -23009,10 +23014,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23035,17 +23040,17 @@
         <v>19</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>19</v>
@@ -23094,7 +23099,7 @@
         <v>19</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>76</v>
@@ -23120,10 +23125,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23146,17 +23151,17 @@
         <v>19</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>19</v>
@@ -23181,13 +23186,13 @@
         <v>19</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>19</v>
@@ -23205,7 +23210,7 @@
         <v>19</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>76</v>
@@ -23231,10 +23236,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23257,19 +23262,19 @@
         <v>19</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>19</v>
@@ -23294,13 +23299,13 @@
         <v>19</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>19</v>
@@ -23318,7 +23323,7 @@
         <v>19</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>76</v>
@@ -23344,10 +23349,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23370,19 +23375,19 @@
         <v>19</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>19</v>
@@ -23407,13 +23412,13 @@
         <v>19</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>19</v>
@@ -23431,7 +23436,7 @@
         <v>19</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>76</v>
@@ -23457,14 +23462,14 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -23483,13 +23488,13 @@
         <v>19</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -23516,11 +23521,11 @@
         <v>19</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y185" s="2"/>
       <c r="Z185" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>19</v>
@@ -23538,7 +23543,7 @@
         <v>19</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>76</v>
@@ -23564,10 +23569,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -23590,19 +23595,19 @@
         <v>19</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>19</v>
@@ -23627,13 +23632,13 @@
         <v>19</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>19</v>
@@ -23651,7 +23656,7 @@
         <v>19</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>76</v>
@@ -23677,10 +23682,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23703,19 +23708,19 @@
         <v>19</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>19</v>
@@ -23740,13 +23745,13 @@
         <v>19</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>19</v>
@@ -23764,7 +23769,7 @@
         <v>19</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>76</v>
@@ -23790,10 +23795,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23816,17 +23821,17 @@
         <v>19</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>19</v>
@@ -23875,7 +23880,7 @@
         <v>19</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>76</v>
@@ -23901,10 +23906,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23927,17 +23932,17 @@
         <v>19</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>19</v>
@@ -23986,7 +23991,7 @@
         <v>19</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>76</v>
@@ -24012,10 +24017,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24038,17 +24043,17 @@
         <v>19</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>19</v>
@@ -24097,7 +24102,7 @@
         <v>19</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>76</v>
@@ -24123,10 +24128,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24149,19 +24154,19 @@
         <v>19</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>19</v>
@@ -24210,7 +24215,7 @@
         <v>19</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>76</v>
@@ -24236,10 +24241,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24262,17 +24267,17 @@
         <v>19</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>19</v>
@@ -24321,7 +24326,7 @@
         <v>19</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>76</v>
@@ -24347,10 +24352,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24373,19 +24378,19 @@
         <v>19</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>19</v>
@@ -24434,7 +24439,7 @@
         <v>19</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>76</v>
@@ -24460,10 +24465,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -24486,17 +24491,17 @@
         <v>19</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>19</v>
@@ -24545,7 +24550,7 @@
         <v>19</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>76</v>
@@ -24571,10 +24576,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -24597,17 +24602,17 @@
         <v>19</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>19</v>
@@ -24656,7 +24661,7 @@
         <v>19</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>76</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1934,7 +1934,7 @@
     <t>Claim.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDCoverage)
 </t>
   </si>
   <si>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1934,7 +1934,7 @@
     <t>Claim.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDCoverage)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/SVCCoverage)
 </t>
   </si>
   <si>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="795">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -813,7 +813,7 @@
     <t>Claim.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-organization)
 </t>
   </si>
   <si>
@@ -827,476 +827,479 @@
   </si>
   <si>
     <t>Claim.provider</t>
+  </si>
+  <si>
+    <t>Party responsible for the claim</t>
+  </si>
+  <si>
+    <t>The provider which is responsible for the claim, predetermination or preauthorization.</t>
+  </si>
+  <si>
+    <t>Typically this field would be 1..1 where this party is accountable for the data content within the claim but is not necessarily the facility, provider group or practitioner who provided the products and services listed within this claim resource. This field is the Billing Provider, for example, a facility, provider group, lab or practitioner.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Claim.priority</t>
+  </si>
+  <si>
+    <t>Desired processing urgency</t>
+  </si>
+  <si>
+    <t>The provider-required urgency of processing the request. Typical values include: stat, normal, deferred.</t>
+  </si>
+  <si>
+    <t>If a claim processor is unable to complete the processing as per the priority then they should generate an error and not process the request.</t>
+  </si>
+  <si>
+    <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
+  </si>
+  <si>
+    <t>The timeliness with which processing is required: stat, normal, deferred.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>Claim.fundsReserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund pre-allocation
+</t>
+  </si>
+  <si>
+    <t>For whom to reserve funds</t>
+  </si>
+  <si>
+    <t>A code to indicate whether and for whom funds are to be reserved for future claims.</t>
+  </si>
+  <si>
+    <t>This field is only used for preauthorizations.</t>
+  </si>
+  <si>
+    <t>In the case of a Pre-Determination/Pre-Authorization the provider may request that funds in the amount of the expected Benefit be reserved ('Patient' or 'Provider') to pay for the Benefits determined on the subsequent claim(s). 'None' explicitly indicates no funds reserving is requested.</t>
+  </si>
+  <si>
+    <t>For whom funds are to be reserved: (Patient, Provider, None).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fundsreserve</t>
+  </si>
+  <si>
+    <t>Claim.related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Prior or corollary claims</t>
+  </si>
+  <si>
+    <t>Other claims which are related to this claim such as prior submissions or claims for related services or for the same event.</t>
+  </si>
+  <si>
+    <t>For example,  for the original treatment and follow-up exams.</t>
+  </si>
+  <si>
+    <t>For workplace or other accidents it is common to relate separate claims arising from the same event.</t>
+  </si>
+  <si>
+    <t>Claim.related.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Claim.related.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Claim.related.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.related.claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDClaim)
+</t>
+  </si>
+  <si>
+    <t>Reference to the related claim</t>
+  </si>
+  <si>
+    <t>Reference to a related claim.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Claim.related.relationship</t>
+  </si>
+  <si>
+    <t>How the reference claim is related</t>
+  </si>
+  <si>
+    <t>A code to convey how the claims are related.</t>
+  </si>
+  <si>
+    <t>For example, prior claim or umbrella.</t>
+  </si>
+  <si>
+    <t>Some insurers need a declaration of the type of relationship.</t>
+  </si>
+  <si>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
+  </si>
+  <si>
+    <t>Claim.related.reference</t>
+  </si>
+  <si>
+    <t>File or case reference</t>
+  </si>
+  <si>
+    <t>An alternate organizational reference to the case or file to which this particular claim pertains.</t>
+  </si>
+  <si>
+    <t>For example, Property/Casualty insurer claim # or Workers Compensation case # .</t>
+  </si>
+  <si>
+    <t>In cases where an event-triggered claim is being submitted to an insurer which requires a reference number to be specified on all exchanges.</t>
+  </si>
+  <si>
+    <t>Claim.prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DeviceRequest|MedicationRequest|VisionPrescription)
+</t>
+  </si>
+  <si>
+    <t>Prescription authorizing services and products</t>
+  </si>
+  <si>
+    <t>Prescription is the document/authorization given to the claim author for them to provide products and services for which consideration (reimbursement) is sought. Could be a RX for medications, an 'order' for oxygen or wheelchair or physiotherapy treatments.</t>
+  </si>
+  <si>
+    <t>Required to authorize the dispensing of controlled substances and devices.</t>
+  </si>
+  <si>
+    <t>Claim.originalPrescription</t>
+  </si>
+  <si>
+    <t>Original prescription if superseded by fulfiller</t>
+  </si>
+  <si>
+    <t>Original prescription which has been superseded by this prescription to support the dispensing of pharmacy services, medications or products.</t>
+  </si>
+  <si>
+    <t>For example, a physician may prescribe a medication which the pharmacy determines is contraindicated, or for which the patient has an intolerance, and therefore issues a new prescription for an alternate medication which has the same therapeutic intent. The prescription from the pharmacy becomes the 'prescription' and that from the physician becomes the 'original prescription'.</t>
+  </si>
+  <si>
+    <t>Often required when a fulfiller varies what is fulfilled from that authorized on the original prescription.</t>
+  </si>
+  <si>
+    <t>Claim.payee</t>
+  </si>
+  <si>
+    <t>Recipient of benefits payable</t>
+  </si>
+  <si>
+    <t>The party to be reimbursed for cost of the products and services according to the terms of the policy.</t>
+  </si>
+  <si>
+    <t>Often providers agree to receive the benefits payable to reduce the near-term costs to the patient. The insurer may decline to pay the provider and choose to pay the subscriber instead.</t>
+  </si>
+  <si>
+    <t>The provider needs to specify who they wish to be reimbursed and the claims processor needs express who they will reimburse.</t>
+  </si>
+  <si>
+    <t>Claim.payee.id</t>
+  </si>
+  <si>
+    <t>Claim.payee.extension</t>
+  </si>
+  <si>
+    <t>Claim.payee.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.payee.type</t>
+  </si>
+  <si>
+    <t>Category of recipient</t>
+  </si>
+  <si>
+    <t>Type of Party to be reimbursed: subscriber, provider, other.</t>
+  </si>
+  <si>
+    <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
+  </si>
+  <si>
+    <t>A code for the party to be reimbursed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
+  </si>
+  <si>
+    <t>Claim.payee.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Recipient reference</t>
+  </si>
+  <si>
+    <t>Reference to the individual or organization to whom any payment will be made.</t>
+  </si>
+  <si>
+    <t>Not required if the payee is 'subscriber' or 'provider'.</t>
+  </si>
+  <si>
+    <t>Need to provide demographics if the payee is not 'subscriber' nor 'provider'.</t>
+  </si>
+  <si>
+    <t>Claim.referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Treatment referral</t>
+  </si>
+  <si>
+    <t>The referral information received by the claim author, it is not to be used when the author generates a referral for a patient. A copy of that referral may be provided as supporting information. Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
+  </si>
+  <si>
+    <t>The referral resource which lists the date, practitioner, reason and other supporting information.</t>
+  </si>
+  <si>
+    <t>Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
+  </si>
+  <si>
+    <t>FiveWs.cause</t>
+  </si>
+  <si>
+    <t>Claim.encounter</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounters associated with the listed treatments</t>
+  </si>
+  <si>
+    <t>Healthcare encounters related to this claim.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Used in some jurisdictions to link clinical events to claim items.</t>
+  </si>
+  <si>
+    <t>Claim.encounter:MopedEncounter</t>
+  </si>
+  <si>
+    <t>MopedEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDEncounter)
+</t>
+  </si>
+  <si>
+    <t>Generelle Informationen zu Aufnahme und Entlassung des Patienten</t>
+  </si>
+  <si>
+    <t>Claim.encounter:TransferEncounter</t>
+  </si>
+  <si>
+    <t>TransferEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDTransferEncounter)
+</t>
+  </si>
+  <si>
+    <t>Informationen zu Verlegungen innerhalb oder zwischen Krankenanstalten</t>
+  </si>
+  <si>
+    <t>Claim.facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|Organization)
+</t>
+  </si>
+  <si>
+    <t>Servicing facility</t>
+  </si>
+  <si>
+    <t>Facility where the services were provided.</t>
+  </si>
+  <si>
+    <t>Insurance adjudication can be dependant on where services were delivered.</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Claim.diagnosisRelatedGroup</t>
+  </si>
+  <si>
+    <t>"Abrechnung - Gruppe:" Dieses Datenfeld ist mit der Codenummer der zutreffenden Abrechnungsgruppe zu befüllen. Bei Datensätzen von stationären Krankenhausaufenthalten, die keiner leistungsorientier- ten Diagnosenfallgruppe zugeordnet werden, erfolgt ein Eintrag entsprechend der jeweiligen Aufnahmeart.</t>
+  </si>
+  <si>
+    <t>A package billing code or bundle code used to group products and services to a particular health condition (such as heart attack) which is based on a predetermined grouping code system.</t>
+  </si>
+  <si>
+    <t>For example DRG (Diagnosis Related Group) or a bundled billing code. A patient may have a diagnosis of a Myocardial Infarction and a DRG for HeartAttack would be assigned. The Claim item (and possible subsequent claims) would refer to the DRG for those line items that were for services related to the heart attack event.</t>
+  </si>
+  <si>
+    <t>Required to relate the current diagnosis to a package billing code that is then referenced on the individual claim items which are specific to the health condition covered by the package code.</t>
+  </si>
+  <si>
+    <t>http://tbd.at/MOPED-LKFAbrechnungsGruppe</t>
+  </si>
+  <si>
+    <t>Claim.event</t>
+  </si>
+  <si>
+    <t>Event information</t>
+  </si>
+  <si>
+    <t>Information code for an event with a corresponding date or period.</t>
+  </si>
+  <si>
+    <t>Claim.event.id</t>
+  </si>
+  <si>
+    <t>Claim.event.extension</t>
+  </si>
+  <si>
+    <t>Claim.event.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.event.type</t>
+  </si>
+  <si>
+    <t>Specific event</t>
+  </si>
+  <si>
+    <t>A coded event such as when a service is expected or a card printed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/datestype</t>
+  </si>
+  <si>
+    <t>Claim.event.when[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Occurance date or period</t>
+  </si>
+  <si>
+    <t>A date or period in the past or future indicating when the event occurred or is expectd to occur.</t>
+  </si>
+  <si>
+    <t>Claim.careTeam</t>
+  </si>
+  <si>
+    <t>Members of the care team</t>
+  </si>
+  <si>
+    <t>The members of the team who provided the products and services.</t>
+  </si>
+  <si>
+    <t>Common to identify the responsible and supporting practitioners.</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.id</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.extension</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.modifierExtension</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Order of care team</t>
+  </si>
+  <si>
+    <t>A number to uniquely identify care team entries.</t>
+  </si>
+  <si>
+    <t>Necessary to maintain the order of the care team and provide a mechanism to link individuals to claim details.</t>
+  </si>
+  <si>
+    <t>Claim.careTeam.provider</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
-  </si>
-  <si>
-    <t>Party responsible for the claim</t>
-  </si>
-  <si>
-    <t>The provider which is responsible for the claim, predetermination or preauthorization.</t>
-  </si>
-  <si>
-    <t>Typically this field would be 1..1 where this party is accountable for the data content within the claim but is not necessarily the facility, provider group or practitioner who provided the products and services listed within this claim resource. This field is the Billing Provider, for example, a facility, provider group, lab or practitioner.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Claim.priority</t>
-  </si>
-  <si>
-    <t>Desired processing urgency</t>
-  </si>
-  <si>
-    <t>The provider-required urgency of processing the request. Typical values include: stat, normal, deferred.</t>
-  </si>
-  <si>
-    <t>If a claim processor is unable to complete the processing as per the priority then they should generate an error and not process the request.</t>
-  </si>
-  <si>
-    <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
-  </si>
-  <si>
-    <t>The timeliness with which processing is required: stat, normal, deferred.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>Claim.fundsReserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund pre-allocation
-</t>
-  </si>
-  <si>
-    <t>For whom to reserve funds</t>
-  </si>
-  <si>
-    <t>A code to indicate whether and for whom funds are to be reserved for future claims.</t>
-  </si>
-  <si>
-    <t>This field is only used for preauthorizations.</t>
-  </si>
-  <si>
-    <t>In the case of a Pre-Determination/Pre-Authorization the provider may request that funds in the amount of the expected Benefit be reserved ('Patient' or 'Provider') to pay for the Benefits determined on the subsequent claim(s). 'None' explicitly indicates no funds reserving is requested.</t>
-  </si>
-  <si>
-    <t>For whom funds are to be reserved: (Patient, Provider, None).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fundsreserve</t>
-  </si>
-  <si>
-    <t>Claim.related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Prior or corollary claims</t>
-  </si>
-  <si>
-    <t>Other claims which are related to this claim such as prior submissions or claims for related services or for the same event.</t>
-  </si>
-  <si>
-    <t>For example,  for the original treatment and follow-up exams.</t>
-  </si>
-  <si>
-    <t>For workplace or other accidents it is common to relate separate claims arising from the same event.</t>
-  </si>
-  <si>
-    <t>Claim.related.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Claim.related.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Claim.related.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.related.claim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDClaim)
-</t>
-  </si>
-  <si>
-    <t>Reference to the related claim</t>
-  </si>
-  <si>
-    <t>Reference to a related claim.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Claim.related.relationship</t>
-  </si>
-  <si>
-    <t>How the reference claim is related</t>
-  </si>
-  <si>
-    <t>A code to convey how the claims are related.</t>
-  </si>
-  <si>
-    <t>For example, prior claim or umbrella.</t>
-  </si>
-  <si>
-    <t>Some insurers need a declaration of the type of relationship.</t>
-  </si>
-  <si>
-    <t>Relationship of this claim to a related Claim.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
-  </si>
-  <si>
-    <t>Claim.related.reference</t>
-  </si>
-  <si>
-    <t>File or case reference</t>
-  </si>
-  <si>
-    <t>An alternate organizational reference to the case or file to which this particular claim pertains.</t>
-  </si>
-  <si>
-    <t>For example, Property/Casualty insurer claim # or Workers Compensation case # .</t>
-  </si>
-  <si>
-    <t>In cases where an event-triggered claim is being submitted to an insurer which requires a reference number to be specified on all exchanges.</t>
-  </si>
-  <si>
-    <t>Claim.prescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DeviceRequest|MedicationRequest|VisionPrescription)
-</t>
-  </si>
-  <si>
-    <t>Prescription authorizing services and products</t>
-  </si>
-  <si>
-    <t>Prescription is the document/authorization given to the claim author for them to provide products and services for which consideration (reimbursement) is sought. Could be a RX for medications, an 'order' for oxygen or wheelchair or physiotherapy treatments.</t>
-  </si>
-  <si>
-    <t>Required to authorize the dispensing of controlled substances and devices.</t>
-  </si>
-  <si>
-    <t>Claim.originalPrescription</t>
-  </si>
-  <si>
-    <t>Original prescription if superseded by fulfiller</t>
-  </si>
-  <si>
-    <t>Original prescription which has been superseded by this prescription to support the dispensing of pharmacy services, medications or products.</t>
-  </si>
-  <si>
-    <t>For example, a physician may prescribe a medication which the pharmacy determines is contraindicated, or for which the patient has an intolerance, and therefore issues a new prescription for an alternate medication which has the same therapeutic intent. The prescription from the pharmacy becomes the 'prescription' and that from the physician becomes the 'original prescription'.</t>
-  </si>
-  <si>
-    <t>Often required when a fulfiller varies what is fulfilled from that authorized on the original prescription.</t>
-  </si>
-  <si>
-    <t>Claim.payee</t>
-  </si>
-  <si>
-    <t>Recipient of benefits payable</t>
-  </si>
-  <si>
-    <t>The party to be reimbursed for cost of the products and services according to the terms of the policy.</t>
-  </si>
-  <si>
-    <t>Often providers agree to receive the benefits payable to reduce the near-term costs to the patient. The insurer may decline to pay the provider and choose to pay the subscriber instead.</t>
-  </si>
-  <si>
-    <t>The provider needs to specify who they wish to be reimbursed and the claims processor needs express who they will reimburse.</t>
-  </si>
-  <si>
-    <t>Claim.payee.id</t>
-  </si>
-  <si>
-    <t>Claim.payee.extension</t>
-  </si>
-  <si>
-    <t>Claim.payee.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.payee.type</t>
-  </si>
-  <si>
-    <t>Category of recipient</t>
-  </si>
-  <si>
-    <t>Type of Party to be reimbursed: subscriber, provider, other.</t>
-  </si>
-  <si>
-    <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
-  </si>
-  <si>
-    <t>A code for the party to be reimbursed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
-  </si>
-  <si>
-    <t>Claim.payee.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Recipient reference</t>
-  </si>
-  <si>
-    <t>Reference to the individual or organization to whom any payment will be made.</t>
-  </si>
-  <si>
-    <t>Not required if the payee is 'subscriber' or 'provider'.</t>
-  </si>
-  <si>
-    <t>Need to provide demographics if the payee is not 'subscriber' nor 'provider'.</t>
-  </si>
-  <si>
-    <t>Claim.referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Treatment referral</t>
-  </si>
-  <si>
-    <t>The referral information received by the claim author, it is not to be used when the author generates a referral for a patient. A copy of that referral may be provided as supporting information. Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
-  </si>
-  <si>
-    <t>The referral resource which lists the date, practitioner, reason and other supporting information.</t>
-  </si>
-  <si>
-    <t>Some insurers require proof of referral to pay for services or to pay specialist rates for services.</t>
-  </si>
-  <si>
-    <t>FiveWs.cause</t>
-  </si>
-  <si>
-    <t>Claim.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounters associated with the listed treatments</t>
-  </si>
-  <si>
-    <t>Healthcare encounters related to this claim.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Used in some jurisdictions to link clinical events to claim items.</t>
-  </si>
-  <si>
-    <t>Claim.encounter:MopedEncounter</t>
-  </si>
-  <si>
-    <t>MopedEncounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDEncounter)
-</t>
-  </si>
-  <si>
-    <t>Generelle Informationen zu Aufnahme und Entlassung des Patienten</t>
-  </si>
-  <si>
-    <t>Claim.encounter:TransferEncounter</t>
-  </si>
-  <si>
-    <t>TransferEncounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDTransferEncounter)
-</t>
-  </si>
-  <si>
-    <t>Informationen zu Verlegungen innerhalb oder zwischen Krankenanstalten</t>
-  </si>
-  <si>
-    <t>Claim.facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|Organization)
-</t>
-  </si>
-  <si>
-    <t>Servicing facility</t>
-  </si>
-  <si>
-    <t>Facility where the services were provided.</t>
-  </si>
-  <si>
-    <t>Insurance adjudication can be dependant on where services were delivered.</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Claim.diagnosisRelatedGroup</t>
-  </si>
-  <si>
-    <t>"Abrechnung - Gruppe:" Dieses Datenfeld ist mit der Codenummer der zutreffenden Abrechnungsgruppe zu befüllen. Bei Datensätzen von stationären Krankenhausaufenthalten, die keiner leistungsorientier- ten Diagnosenfallgruppe zugeordnet werden, erfolgt ein Eintrag entsprechend der jeweiligen Aufnahmeart.</t>
-  </si>
-  <si>
-    <t>A package billing code or bundle code used to group products and services to a particular health condition (such as heart attack) which is based on a predetermined grouping code system.</t>
-  </si>
-  <si>
-    <t>For example DRG (Diagnosis Related Group) or a bundled billing code. A patient may have a diagnosis of a Myocardial Infarction and a DRG for HeartAttack would be assigned. The Claim item (and possible subsequent claims) would refer to the DRG for those line items that were for services related to the heart attack event.</t>
-  </si>
-  <si>
-    <t>Required to relate the current diagnosis to a package billing code that is then referenced on the individual claim items which are specific to the health condition covered by the package code.</t>
-  </si>
-  <si>
-    <t>http://tbd.at/MOPED-LKFAbrechnungsGruppe</t>
-  </si>
-  <si>
-    <t>Claim.event</t>
-  </si>
-  <si>
-    <t>Event information</t>
-  </si>
-  <si>
-    <t>Information code for an event with a corresponding date or period.</t>
-  </si>
-  <si>
-    <t>Claim.event.id</t>
-  </si>
-  <si>
-    <t>Claim.event.extension</t>
-  </si>
-  <si>
-    <t>Claim.event.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.event.type</t>
-  </si>
-  <si>
-    <t>Specific event</t>
-  </si>
-  <si>
-    <t>A coded event such as when a service is expected or a card printed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/datestype</t>
-  </si>
-  <si>
-    <t>Claim.event.when[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Occurance date or period</t>
-  </si>
-  <si>
-    <t>A date or period in the past or future indicating when the event occurred or is expectd to occur.</t>
-  </si>
-  <si>
-    <t>Claim.careTeam</t>
-  </si>
-  <si>
-    <t>Members of the care team</t>
-  </si>
-  <si>
-    <t>The members of the team who provided the products and services.</t>
-  </si>
-  <si>
-    <t>Common to identify the responsible and supporting practitioners.</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.id</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.extension</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.modifierExtension</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Order of care team</t>
-  </si>
-  <si>
-    <t>A number to uniquely identify care team entries.</t>
-  </si>
-  <si>
-    <t>Necessary to maintain the order of the care team and provide a mechanism to link individuals to claim details.</t>
-  </si>
-  <si>
-    <t>Claim.careTeam.provider</t>
   </si>
   <si>
     <t>Practitioner or organization</t>
@@ -5846,7 +5849,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -5955,7 +5958,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -5970,16 +5973,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6044,10 +6047,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -6055,10 +6058,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6084,16 +6087,16 @@
         <v>203</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -6121,11 +6124,11 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6157,7 +6160,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
@@ -6168,14 +6171,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6197,16 +6200,16 @@
         <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -6234,11 +6237,11 @@
         <v>217</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6307,19 +6310,19 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -6368,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6394,10 +6397,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6420,13 +6423,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6477,36 +6480,36 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AJ33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6532,10 +6535,10 @@
         <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>178</v>
@@ -6588,7 +6591,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6609,19 +6612,19 @@
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6643,10 +6646,10 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>178</v>
@@ -6701,7 +6704,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6727,10 +6730,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6753,17 +6756,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6812,7 +6815,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6827,7 +6830,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>19</v>
@@ -6838,10 +6841,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6867,16 +6870,16 @@
         <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6904,11 +6907,11 @@
         <v>217</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6951,10 +6954,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6980,16 +6983,16 @@
         <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -7038,7 +7041,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7064,10 +7067,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7090,17 +7093,17 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -7149,7 +7152,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7175,10 +7178,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7201,19 +7204,19 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -7262,7 +7265,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7288,10 +7291,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7314,19 +7317,19 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -7375,7 +7378,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7401,10 +7404,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7427,13 +7430,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7484,36 +7487,36 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI42" t="s" s="2">
+      <c r="AJ42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7539,10 +7542,10 @@
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>178</v>
@@ -7595,7 +7598,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7616,19 +7619,19 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7650,10 +7653,10 @@
         <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>178</v>
@@ -7708,7 +7711,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7734,10 +7737,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7763,14 +7766,14 @@
         <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7798,11 +7801,11 @@
         <v>217</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -7845,10 +7848,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7871,19 +7874,19 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7932,7 +7935,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7958,10 +7961,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7984,19 +7987,19 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -8045,7 +8048,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8063,7 +8066,7 @@
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
@@ -8071,10 +8074,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8082,7 +8085,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -8156,7 +8159,7 @@
         <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8185,7 +8188,7 @@
         <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>365</v>
@@ -8195,7 +8198,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -8271,7 +8274,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8300,7 +8303,7 @@
         <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>369</v>
@@ -8310,7 +8313,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -8386,7 +8389,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8660,7 +8663,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>385</v>
@@ -8769,13 +8772,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8826,28 +8829,28 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI54" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="55">
@@ -8881,10 +8884,10 @@
         <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>178</v>
@@ -8937,7 +8940,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8958,7 +8961,7 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56">
@@ -8970,7 +8973,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8992,10 +8995,10 @@
         <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>178</v>
@@ -9050,7 +9053,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9318,7 +9321,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>399</v>
@@ -9429,13 +9432,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9486,28 +9489,28 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
+      <c r="AJ60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="61">
@@ -9541,10 +9544,10 @@
         <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>178</v>
@@ -9597,7 +9600,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9618,7 +9621,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62">
@@ -9630,7 +9633,7 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9652,10 +9655,10 @@
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>178</v>
@@ -9710,7 +9713,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9873,17 +9876,17 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>260</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9950,7 +9953,7 @@
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>19</v>
@@ -9958,10 +9961,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9984,19 +9987,19 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -10045,7 +10048,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10071,10 +10074,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10100,16 +10103,16 @@
         <v>203</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -10137,10 +10140,10 @@
         <v>217</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -10158,7 +10161,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10184,10 +10187,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10213,14 +10216,14 @@
         <v>203</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -10249,7 +10252,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -10267,7 +10270,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10293,14 +10296,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10319,19 +10322,19 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10380,7 +10383,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10395,7 +10398,7 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>19</v>
@@ -10406,10 +10409,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10432,13 +10435,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10489,36 +10492,36 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10544,10 +10547,10 @@
         <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>178</v>
@@ -10600,7 +10603,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10621,19 +10624,19 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10655,10 +10658,10 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>178</v>
@@ -10713,7 +10716,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10739,10 +10742,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10768,14 +10771,14 @@
         <v>406</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10824,7 +10827,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10850,10 +10853,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10879,16 +10882,16 @@
         <v>203</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -10916,10 +10919,10 @@
         <v>217</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -10937,7 +10940,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10963,10 +10966,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10992,14 +10995,14 @@
         <v>203</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -11027,10 +11030,10 @@
         <v>217</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -11048,7 +11051,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11074,10 +11077,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11100,13 +11103,13 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11157,7 +11160,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11183,10 +11186,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11209,19 +11212,19 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11270,7 +11273,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11296,10 +11299,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11325,16 +11328,16 @@
         <v>203</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11362,10 +11365,10 @@
         <v>217</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -11383,7 +11386,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11409,10 +11412,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11435,17 +11438,17 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -11494,7 +11497,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11509,7 +11512,7 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>19</v>
@@ -11520,10 +11523,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11546,13 +11549,13 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11603,36 +11606,36 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI79" t="s" s="2">
+      <c r="AJ79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11658,10 +11661,10 @@
         <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>178</v>
@@ -11714,7 +11717,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11735,19 +11738,19 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11769,10 +11772,10 @@
         <v>134</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>178</v>
@@ -11827,7 +11830,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11853,10 +11856,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11882,16 +11885,16 @@
         <v>406</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -11940,7 +11943,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>87</v>
@@ -11966,10 +11969,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11992,17 +11995,17 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>19</v>
@@ -12030,10 +12033,10 @@
         <v>217</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -12051,7 +12054,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>87</v>
@@ -12077,10 +12080,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12106,16 +12109,16 @@
         <v>203</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>19</v>
@@ -12143,10 +12146,10 @@
         <v>217</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
@@ -12164,7 +12167,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12190,10 +12193,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12219,14 +12222,14 @@
         <v>203</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12254,10 +12257,10 @@
         <v>217</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -12275,7 +12278,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12301,10 +12304,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12327,17 +12330,17 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -12386,7 +12389,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12412,10 +12415,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12438,13 +12441,13 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12495,36 +12498,36 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI87" t="s" s="2">
+      <c r="AJ87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12602,7 +12605,7 @@
         <v>138</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12628,13 +12631,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="B89" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="C89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>19</v>
@@ -12656,13 +12659,13 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12713,7 +12716,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12739,14 +12742,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12768,10 +12771,10 @@
         <v>134</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>178</v>
@@ -12826,7 +12829,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12852,10 +12855,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12881,14 +12884,14 @@
         <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -12937,7 +12940,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>87</v>
@@ -12963,10 +12966,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12992,16 +12995,16 @@
         <v>203</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13029,10 +13032,10 @@
         <v>217</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
@@ -13050,7 +13053,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13076,10 +13079,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13105,14 +13108,14 @@
         <v>241</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
@@ -13161,7 +13164,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13187,10 +13190,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13213,17 +13216,17 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>19</v>
@@ -13251,10 +13254,10 @@
         <v>217</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>19</v>
@@ -13272,7 +13275,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>87</v>
@@ -13298,10 +13301,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13324,17 +13327,17 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>19</v>
@@ -13383,7 +13386,7 @@
         <v>19</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13409,10 +13412,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13435,19 +13438,19 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>19</v>
@@ -13496,7 +13499,7 @@
         <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13517,15 +13520,15 @@
         <v>19</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13548,13 +13551,13 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13605,36 +13608,36 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI97" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI97" t="s" s="2">
+      <c r="AJ97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13660,10 +13663,10 @@
         <v>134</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>178</v>
@@ -13716,7 +13719,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13737,19 +13740,19 @@
         <v>19</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13771,10 +13774,10 @@
         <v>134</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>178</v>
@@ -13829,7 +13832,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13855,10 +13858,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13884,14 +13887,14 @@
         <v>406</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>19</v>
@@ -13940,7 +13943,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>87</v>
@@ -13966,10 +13969,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13992,19 +13995,19 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>19</v>
@@ -14053,7 +14056,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>87</v>
@@ -14079,10 +14082,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14108,16 +14111,16 @@
         <v>183</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>19</v>
@@ -14166,7 +14169,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14192,10 +14195,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14218,17 +14221,17 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>19</v>
@@ -14277,7 +14280,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>87</v>
@@ -14303,10 +14306,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14329,17 +14332,17 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>19</v>
@@ -14388,7 +14391,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14414,10 +14417,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14440,19 +14443,19 @@
         <v>19</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -14501,7 +14504,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14527,10 +14530,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14553,19 +14556,19 @@
         <v>19</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>19</v>
@@ -14614,7 +14617,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14640,10 +14643,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14666,17 +14669,17 @@
         <v>19</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -14725,7 +14728,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -14751,10 +14754,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14777,13 +14780,13 @@
         <v>19</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14834,36 +14837,36 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI108" t="s" s="2">
+      <c r="AJ108" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14889,10 +14892,10 @@
         <v>134</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>178</v>
@@ -14945,7 +14948,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14966,19 +14969,19 @@
         <v>19</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15000,10 +15003,10 @@
         <v>134</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>178</v>
@@ -15058,7 +15061,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15084,10 +15087,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15110,19 +15113,19 @@
         <v>19</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>19</v>
@@ -15171,7 +15174,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>87</v>
@@ -15197,10 +15200,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15226,14 +15229,14 @@
         <v>203</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -15261,10 +15264,10 @@
         <v>208</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>19</v>
@@ -15282,7 +15285,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15308,10 +15311,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15334,17 +15337,17 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>19</v>
@@ -15393,7 +15396,7 @@
         <v>19</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15419,10 +15422,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15445,17 +15448,17 @@
         <v>19</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>19</v>
@@ -15504,7 +15507,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15530,10 +15533,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15556,17 +15559,17 @@
         <v>19</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>19</v>
@@ -15615,7 +15618,7 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -15641,10 +15644,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15667,13 +15670,13 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15724,36 +15727,36 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI116" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI116" t="s" s="2">
+      <c r="AJ116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15779,10 +15782,10 @@
         <v>134</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>178</v>
@@ -15835,7 +15838,7 @@
         <v>19</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -15856,19 +15859,19 @@
         <v>19</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15890,10 +15893,10 @@
         <v>134</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>178</v>
@@ -15948,7 +15951,7 @@
         <v>19</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15974,10 +15977,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16003,14 +16006,14 @@
         <v>406</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -16059,7 +16062,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>87</v>
@@ -16085,10 +16088,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16170,7 +16173,7 @@
         <v>19</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -16196,10 +16199,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16225,14 +16228,14 @@
         <v>406</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>19</v>
@@ -16281,7 +16284,7 @@
         <v>19</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -16307,10 +16310,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16336,14 +16339,14 @@
         <v>406</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -16392,7 +16395,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -16418,10 +16421,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16447,14 +16450,14 @@
         <v>406</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>19</v>
@@ -16503,7 +16506,7 @@
         <v>19</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -16529,10 +16532,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16558,14 +16561,14 @@
         <v>406</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>19</v>
@@ -16614,7 +16617,7 @@
         <v>19</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -16640,10 +16643,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16669,14 +16672,14 @@
         <v>203</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>19</v>
@@ -16704,10 +16707,10 @@
         <v>217</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>19</v>
@@ -16725,7 +16728,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -16751,10 +16754,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16780,16 +16783,16 @@
         <v>203</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>19</v>
@@ -16817,10 +16820,10 @@
         <v>217</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>19</v>
@@ -16838,7 +16841,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -16864,14 +16867,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16893,16 +16896,16 @@
         <v>203</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -16930,10 +16933,10 @@
         <v>217</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>19</v>
@@ -16951,7 +16954,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
@@ -16977,14 +16980,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17006,10 +17009,10 @@
         <v>203</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17040,7 +17043,7 @@
       </c>
       <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>19</v>
@@ -17058,7 +17061,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>76</v>
@@ -17084,10 +17087,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17110,17 +17113,17 @@
         <v>19</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>19</v>
@@ -17169,7 +17172,7 @@
         <v>19</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
@@ -17195,10 +17198,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17224,16 +17227,16 @@
         <v>203</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>19</v>
@@ -17261,10 +17264,10 @@
         <v>217</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>19</v>
@@ -17282,7 +17285,7 @@
         <v>19</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
@@ -17308,10 +17311,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17337,16 +17340,16 @@
         <v>203</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>19</v>
@@ -17374,10 +17377,10 @@
         <v>217</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>19</v>
@@ -17395,7 +17398,7 @@
         <v>19</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
@@ -17421,10 +17424,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17447,17 +17450,17 @@
         <v>19</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>19</v>
@@ -17506,7 +17509,7 @@
         <v>19</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17532,10 +17535,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17558,17 +17561,17 @@
         <v>19</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>19</v>
@@ -17596,10 +17599,10 @@
         <v>217</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>19</v>
@@ -17617,7 +17620,7 @@
         <v>19</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
@@ -17643,10 +17646,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17669,17 +17672,17 @@
         <v>19</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>19</v>
@@ -17728,7 +17731,7 @@
         <v>19</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>76</v>
@@ -17754,10 +17757,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17780,17 +17783,17 @@
         <v>19</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>19</v>
@@ -17839,7 +17842,7 @@
         <v>19</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>76</v>
@@ -17865,10 +17868,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17891,17 +17894,17 @@
         <v>19</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>19</v>
@@ -17950,7 +17953,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>76</v>
@@ -17976,10 +17979,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18002,19 +18005,19 @@
         <v>19</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>19</v>
@@ -18063,7 +18066,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>76</v>
@@ -18089,10 +18092,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18115,17 +18118,17 @@
         <v>19</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>19</v>
@@ -18174,7 +18177,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>76</v>
@@ -18200,10 +18203,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18226,19 +18229,19 @@
         <v>19</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>19</v>
@@ -18287,7 +18290,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>76</v>
@@ -18313,10 +18316,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18339,17 +18342,17 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>19</v>
@@ -18398,7 +18401,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>76</v>
@@ -18424,10 +18427,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18450,13 +18453,13 @@
         <v>19</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18507,7 +18510,7 @@
         <v>19</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>76</v>
@@ -18533,10 +18536,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18559,13 +18562,13 @@
         <v>19</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="M142" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18616,36 +18619,36 @@
         <v>19</v>
       </c>
       <c r="AF142" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI142" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI142" t="s" s="2">
+      <c r="AJ142" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18671,10 +18674,10 @@
         <v>134</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>178</v>
@@ -18727,7 +18730,7 @@
         <v>19</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>76</v>
@@ -18748,19 +18751,19 @@
         <v>19</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -18782,10 +18785,10 @@
         <v>134</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>178</v>
@@ -18840,7 +18843,7 @@
         <v>19</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>76</v>
@@ -18866,10 +18869,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18892,19 +18895,19 @@
         <v>19</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>19</v>
@@ -18933,7 +18936,7 @@
       </c>
       <c r="Y145" s="2"/>
       <c r="Z145" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>19</v>
@@ -18951,7 +18954,7 @@
         <v>19</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>87</v>
@@ -18977,10 +18980,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19006,14 +19009,14 @@
         <v>203</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>19</v>
@@ -19042,7 +19045,7 @@
       </c>
       <c r="Y146" s="2"/>
       <c r="Z146" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>19</v>
@@ -19060,7 +19063,7 @@
         <v>19</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>76</v>
@@ -19086,10 +19089,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19173,7 +19176,7 @@
         <v>19</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>76</v>
@@ -19188,7 +19191,7 @@
         <v>99</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>19</v>
@@ -19199,10 +19202,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19225,17 +19228,17 @@
         <v>19</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>19</v>
@@ -19284,7 +19287,7 @@
         <v>19</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>76</v>
@@ -19310,10 +19313,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19336,13 +19339,13 @@
         <v>19</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19393,36 +19396,36 @@
         <v>19</v>
       </c>
       <c r="AF149" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI149" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI149" t="s" s="2">
+      <c r="AJ149" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM149" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19448,10 +19451,10 @@
         <v>134</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>178</v>
@@ -19504,7 +19507,7 @@
         <v>19</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>76</v>
@@ -19525,19 +19528,19 @@
         <v>19</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -19559,10 +19562,10 @@
         <v>134</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>178</v>
@@ -19617,7 +19620,7 @@
         <v>19</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>76</v>
@@ -19643,10 +19646,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19672,14 +19675,14 @@
         <v>406</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>19</v>
@@ -19728,7 +19731,7 @@
         <v>19</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>87</v>
@@ -19754,10 +19757,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19839,7 +19842,7 @@
         <v>19</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>76</v>
@@ -19865,10 +19868,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19894,14 +19897,14 @@
         <v>203</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>19</v>
@@ -19929,10 +19932,10 @@
         <v>217</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>19</v>
@@ -19950,7 +19953,7 @@
         <v>19</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>76</v>
@@ -19976,10 +19979,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20005,16 +20008,16 @@
         <v>203</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>19</v>
@@ -20042,10 +20045,10 @@
         <v>217</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>19</v>
@@ -20063,7 +20066,7 @@
         <v>19</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>76</v>
@@ -20089,14 +20092,14 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20118,16 +20121,16 @@
         <v>203</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>19</v>
@@ -20155,10 +20158,10 @@
         <v>217</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>19</v>
@@ -20176,7 +20179,7 @@
         <v>19</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>76</v>
@@ -20202,14 +20205,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -20231,10 +20234,10 @@
         <v>203</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -20265,7 +20268,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>19</v>
@@ -20283,7 +20286,7 @@
         <v>19</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>76</v>
@@ -20309,10 +20312,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20338,16 +20341,16 @@
         <v>203</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>19</v>
@@ -20375,10 +20378,10 @@
         <v>217</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>19</v>
@@ -20396,7 +20399,7 @@
         <v>19</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>76</v>
@@ -20422,10 +20425,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20451,16 +20454,16 @@
         <v>203</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>19</v>
@@ -20488,10 +20491,10 @@
         <v>217</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>19</v>
@@ -20509,7 +20512,7 @@
         <v>19</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>76</v>
@@ -20535,10 +20538,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20561,17 +20564,17 @@
         <v>19</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>19</v>
@@ -20620,7 +20623,7 @@
         <v>19</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>76</v>
@@ -20646,10 +20649,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20672,17 +20675,17 @@
         <v>19</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>19</v>
@@ -20731,7 +20734,7 @@
         <v>19</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>76</v>
@@ -20757,10 +20760,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20783,17 +20786,17 @@
         <v>19</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>19</v>
@@ -20842,7 +20845,7 @@
         <v>19</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>76</v>
@@ -20868,10 +20871,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20894,19 +20897,19 @@
         <v>19</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>19</v>
@@ -20955,7 +20958,7 @@
         <v>19</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>76</v>
@@ -20981,10 +20984,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21007,17 +21010,17 @@
         <v>19</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>19</v>
@@ -21066,7 +21069,7 @@
         <v>19</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>76</v>
@@ -21092,10 +21095,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21118,19 +21121,19 @@
         <v>19</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>19</v>
@@ -21179,7 +21182,7 @@
         <v>19</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>76</v>
@@ -21205,10 +21208,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21231,17 +21234,17 @@
         <v>19</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>19</v>
@@ -21290,7 +21293,7 @@
         <v>19</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>76</v>
@@ -21316,10 +21319,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21342,17 +21345,17 @@
         <v>19</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>19</v>
@@ -21401,7 +21404,7 @@
         <v>19</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>76</v>
@@ -21427,10 +21430,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21453,13 +21456,13 @@
         <v>19</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -21510,36 +21513,36 @@
         <v>19</v>
       </c>
       <c r="AF168" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI168" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AG168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI168" t="s" s="2">
+      <c r="AJ168" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM168" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21565,10 +21568,10 @@
         <v>134</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>178</v>
@@ -21621,7 +21624,7 @@
         <v>19</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>76</v>
@@ -21642,19 +21645,19 @@
         <v>19</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -21676,10 +21679,10 @@
         <v>134</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>178</v>
@@ -21734,7 +21737,7 @@
         <v>19</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>76</v>
@@ -21760,10 +21763,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21789,14 +21792,14 @@
         <v>406</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>19</v>
@@ -21845,7 +21848,7 @@
         <v>19</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>87</v>
@@ -21871,10 +21874,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21956,7 +21959,7 @@
         <v>19</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>76</v>
@@ -21982,10 +21985,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22011,14 +22014,14 @@
         <v>203</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>19</v>
@@ -22046,10 +22049,10 @@
         <v>217</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>19</v>
@@ -22067,7 +22070,7 @@
         <v>19</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>76</v>
@@ -22093,10 +22096,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22122,16 +22125,16 @@
         <v>203</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>19</v>
@@ -22159,10 +22162,10 @@
         <v>217</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>19</v>
@@ -22180,7 +22183,7 @@
         <v>19</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>76</v>
@@ -22206,10 +22209,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22235,16 +22238,16 @@
         <v>203</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>19</v>
@@ -22272,10 +22275,10 @@
         <v>217</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>19</v>
@@ -22293,7 +22296,7 @@
         <v>19</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>76</v>
@@ -22319,14 +22322,14 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
@@ -22348,10 +22351,10 @@
         <v>203</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -22382,7 +22385,7 @@
       </c>
       <c r="Y176" s="2"/>
       <c r="Z176" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>19</v>
@@ -22400,7 +22403,7 @@
         <v>19</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>76</v>
@@ -22426,10 +22429,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -22455,16 +22458,16 @@
         <v>203</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>19</v>
@@ -22492,10 +22495,10 @@
         <v>217</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>19</v>
@@ -22513,7 +22516,7 @@
         <v>19</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>76</v>
@@ -22539,10 +22542,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22568,16 +22571,16 @@
         <v>203</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>19</v>
@@ -22605,10 +22608,10 @@
         <v>217</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>19</v>
@@ -22626,7 +22629,7 @@
         <v>19</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>76</v>
@@ -22652,10 +22655,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22678,17 +22681,17 @@
         <v>19</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>19</v>
@@ -22737,7 +22740,7 @@
         <v>19</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>76</v>
@@ -22763,10 +22766,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22789,17 +22792,17 @@
         <v>19</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>19</v>
@@ -22848,7 +22851,7 @@
         <v>19</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>76</v>
@@ -22874,10 +22877,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -22900,17 +22903,17 @@
         <v>19</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>19</v>
@@ -22959,7 +22962,7 @@
         <v>19</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>76</v>
@@ -22985,10 +22988,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23011,19 +23014,19 @@
         <v>19</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>19</v>
@@ -23072,7 +23075,7 @@
         <v>19</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>76</v>
@@ -23098,10 +23101,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23124,17 +23127,17 @@
         <v>19</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>19</v>
@@ -23183,7 +23186,7 @@
         <v>19</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>76</v>
@@ -23209,10 +23212,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23235,19 +23238,19 @@
         <v>19</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>19</v>
@@ -23296,7 +23299,7 @@
         <v>19</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>76</v>
@@ -23322,10 +23325,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23348,17 +23351,17 @@
         <v>19</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>19</v>
@@ -23407,7 +23410,7 @@
         <v>19</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>76</v>
@@ -23433,10 +23436,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -23459,17 +23462,17 @@
         <v>19</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>19</v>
@@ -23518,7 +23521,7 @@
         <v>19</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>76</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaim.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
